--- a/Code/Results/Cases/Case_0_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3138236446688438</v>
+        <v>0.4268873391042973</v>
       </c>
       <c r="D2">
-        <v>0.1793494605555139</v>
+        <v>0.2046583537790383</v>
       </c>
       <c r="E2">
-        <v>0.1123530293255506</v>
+        <v>0.1864598340150678</v>
       </c>
       <c r="F2">
-        <v>0.5873503278849128</v>
+        <v>1.512273373307259</v>
       </c>
       <c r="G2">
-        <v>0.318171050419032</v>
+        <v>0.8654205197321545</v>
       </c>
       <c r="H2">
-        <v>0.2916893974667261</v>
+        <v>0.9421265453390291</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1007260010118358</v>
+        <v>0.2196388092749473</v>
       </c>
       <c r="K2">
-        <v>5.134757079589576</v>
+        <v>2.062959816201669</v>
       </c>
       <c r="L2">
-        <v>0.08445751275981195</v>
+        <v>0.1694129256959869</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.23316332283774</v>
+        <v>3.644308653382978</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2855842819896992</v>
+        <v>0.4216639451440898</v>
       </c>
       <c r="D3">
-        <v>0.1606124713256207</v>
+        <v>0.1997997793834969</v>
       </c>
       <c r="E3">
-        <v>0.1037574842928031</v>
+        <v>0.1850631748933154</v>
       </c>
       <c r="F3">
-        <v>0.580574633944515</v>
+        <v>1.526682210855391</v>
       </c>
       <c r="G3">
-        <v>0.3197741877142164</v>
+        <v>0.8777951587670429</v>
       </c>
       <c r="H3">
-        <v>0.3007589857635651</v>
+        <v>0.9533504526584053</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09621335895057825</v>
+        <v>0.2199948724294671</v>
       </c>
       <c r="K3">
-        <v>4.470014207586303</v>
+        <v>1.847978277075299</v>
       </c>
       <c r="L3">
-        <v>0.07931511984280348</v>
+        <v>0.1687248952590608</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.255075262091253</v>
+        <v>3.693707738598761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2685624981972268</v>
+        <v>0.4186434002496213</v>
       </c>
       <c r="D4">
-        <v>0.1491829675744043</v>
+        <v>0.1968656607029828</v>
       </c>
       <c r="E4">
-        <v>0.09858415739191173</v>
+        <v>0.1842738000879507</v>
       </c>
       <c r="F4">
-        <v>0.5781279034445248</v>
+        <v>1.536488585419974</v>
       </c>
       <c r="G4">
-        <v>0.3221563138000079</v>
+        <v>0.8860941790756485</v>
       </c>
       <c r="H4">
-        <v>0.3071612508629542</v>
+        <v>0.9607471702700963</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09359805089884787</v>
+        <v>0.2203112764400785</v>
       </c>
       <c r="K4">
-        <v>4.061920434541321</v>
+        <v>1.715574019572614</v>
       </c>
       <c r="L4">
-        <v>0.07622566941358855</v>
+        <v>0.1683519026339724</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.273226155878106</v>
+        <v>3.72657131162066</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.261700533652089</v>
+        <v>0.417459563553777</v>
       </c>
       <c r="D5">
-        <v>0.1445424438217486</v>
+        <v>0.195682441333048</v>
       </c>
       <c r="E5">
-        <v>0.09650071580172437</v>
+        <v>0.1839693216577594</v>
       </c>
       <c r="F5">
-        <v>0.5775414148735223</v>
+        <v>1.540725823342704</v>
       </c>
       <c r="G5">
-        <v>0.3234604259977232</v>
+        <v>0.8896520333237277</v>
       </c>
       <c r="H5">
-        <v>0.3099716957021954</v>
+        <v>0.9638883843885324</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09256951502723965</v>
+        <v>0.2204648263980715</v>
       </c>
       <c r="K5">
-        <v>3.895587214840646</v>
+        <v>1.661520352166235</v>
       </c>
       <c r="L5">
-        <v>0.0749829584925763</v>
+        <v>0.1682123869000449</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.281748446051068</v>
+        <v>3.740599481397481</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2605654645887654</v>
+        <v>0.4172658344437536</v>
       </c>
       <c r="D6">
-        <v>0.1437728705612926</v>
+        <v>0.1954867246206788</v>
       </c>
       <c r="E6">
-        <v>0.09615621293111687</v>
+        <v>0.1839198035673846</v>
       </c>
       <c r="F6">
-        <v>0.577468251216203</v>
+        <v>1.541443968226467</v>
       </c>
       <c r="G6">
-        <v>0.323696595161401</v>
+        <v>0.8902534289758748</v>
       </c>
       <c r="H6">
-        <v>0.3104503062813393</v>
+        <v>0.9644176493139724</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09240092276968781</v>
+        <v>0.2204918105467435</v>
       </c>
       <c r="K6">
-        <v>3.86796448975764</v>
+        <v>1.652538987528146</v>
       </c>
       <c r="L6">
-        <v>0.07477756620057008</v>
+        <v>0.1681899755996703</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.283229983520783</v>
+        <v>3.742967238069113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.268469660207856</v>
+        <v>0.4186272439000049</v>
       </c>
       <c r="D7">
-        <v>0.149120316926215</v>
+        <v>0.1968496527913857</v>
       </c>
       <c r="E7">
-        <v>0.09855596117500909</v>
+        <v>0.1842696240785138</v>
       </c>
       <c r="F7">
-        <v>0.5781183575828592</v>
+        <v>1.536544754462611</v>
       </c>
       <c r="G7">
-        <v>0.3221725749717663</v>
+        <v>0.8861414496120759</v>
       </c>
       <c r="H7">
-        <v>0.3071983482008847</v>
+        <v>0.9607890196569215</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09358403138995186</v>
+        <v>0.2203132475788863</v>
       </c>
       <c r="K7">
-        <v>4.059677394491246</v>
+        <v>1.714845423913289</v>
       </c>
       <c r="L7">
-        <v>0.0762088449894911</v>
+        <v>0.1683499704783884</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.27333660398449</v>
+        <v>3.72675792633872</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3040176083022459</v>
+        <v>0.4250476495788007</v>
       </c>
       <c r="D8">
-        <v>0.1728722459067882</v>
+        <v>0.2029730036558988</v>
       </c>
       <c r="E8">
-        <v>0.1093666827352884</v>
+        <v>0.1859641467609912</v>
       </c>
       <c r="F8">
-        <v>0.5846458723978714</v>
+        <v>1.51704234316454</v>
       </c>
       <c r="G8">
-        <v>0.3184225212950622</v>
+        <v>0.8695416224171737</v>
       </c>
       <c r="H8">
-        <v>0.2946385865683681</v>
+        <v>0.9458916705175895</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09913661509898475</v>
+        <v>0.2197413003493764</v>
       </c>
       <c r="K8">
-        <v>4.90551144490172</v>
+        <v>1.988920451549234</v>
       </c>
       <c r="L8">
-        <v>0.08266978389886503</v>
+        <v>0.1691654533271247</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.23970951980661</v>
+        <v>3.660815406883486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3764988291570432</v>
+        <v>0.4391144431215821</v>
       </c>
       <c r="D9">
-        <v>0.2201342178037038</v>
+        <v>0.2153656587447301</v>
       </c>
       <c r="E9">
-        <v>0.1314683144071118</v>
+        <v>0.1898260457953462</v>
       </c>
       <c r="F9">
-        <v>0.6120118256417868</v>
+        <v>1.486417339562891</v>
       </c>
       <c r="G9">
-        <v>0.3230222241566096</v>
+        <v>0.8425654274084522</v>
       </c>
       <c r="H9">
-        <v>0.2770087920707027</v>
+        <v>0.920688261704683</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1113489292105641</v>
+        <v>0.2193946389922772</v>
       </c>
       <c r="K9">
-        <v>6.567060000779577</v>
+        <v>2.523024635944694</v>
       </c>
       <c r="L9">
-        <v>0.09591996943228054</v>
+        <v>0.1711553156196857</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.21367326963383</v>
+        <v>3.551629731263574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4318219574963962</v>
+        <v>0.4503449362916569</v>
       </c>
       <c r="D10">
-        <v>0.2554106597797272</v>
+        <v>0.2247001078808211</v>
       </c>
       <c r="E10">
-        <v>0.1483670216379487</v>
+        <v>0.1929897126018858</v>
       </c>
       <c r="F10">
-        <v>0.6424291143496106</v>
+        <v>1.468573121818423</v>
       </c>
       <c r="G10">
-        <v>0.334962286676955</v>
+        <v>0.8261649723789759</v>
       </c>
       <c r="H10">
-        <v>0.2688933588073752</v>
+        <v>0.9046182557261488</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1212626272821922</v>
+        <v>0.2196114236165485</v>
       </c>
       <c r="K10">
-        <v>7.793269240263612</v>
+        <v>2.9132302695769</v>
       </c>
       <c r="L10">
-        <v>0.1060702061598136</v>
+        <v>0.1728534068756034</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.222766600334865</v>
+        <v>3.483727949963935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4575311615393503</v>
+        <v>0.4556476257817224</v>
       </c>
       <c r="D11">
-        <v>0.2716118287205518</v>
+        <v>0.2289954547205184</v>
       </c>
       <c r="E11">
-        <v>0.1562247862811645</v>
+        <v>0.194499369835949</v>
       </c>
       <c r="F11">
-        <v>0.6588477475238221</v>
+        <v>1.461468764094413</v>
       </c>
       <c r="G11">
-        <v>0.3425572451946124</v>
+        <v>0.8194505874845248</v>
       </c>
       <c r="H11">
-        <v>0.2663880109283525</v>
+        <v>0.8978393972849119</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1260092602978702</v>
+        <v>0.2198122447814086</v>
       </c>
       <c r="K11">
-        <v>8.353205864707434</v>
+        <v>3.090237336870814</v>
       </c>
       <c r="L11">
-        <v>0.1107928379510597</v>
+        <v>0.1736767776778336</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.233962093638326</v>
+        <v>3.45552219929769</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4673527190819584</v>
+        <v>0.4576833938143068</v>
       </c>
       <c r="D12">
-        <v>0.2777718035846988</v>
+        <v>0.2306289414007665</v>
       </c>
       <c r="E12">
-        <v>0.1592272017015013</v>
+        <v>0.1950811278878639</v>
       </c>
       <c r="F12">
-        <v>0.6654671187718364</v>
+        <v>1.458924403298994</v>
       </c>
       <c r="G12">
-        <v>0.3457718337553501</v>
+        <v>0.8170156879842096</v>
       </c>
       <c r="H12">
-        <v>0.2656222422447456</v>
+        <v>0.8953488978507806</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1278436404215455</v>
+        <v>0.2199029680323363</v>
       </c>
       <c r="K12">
-        <v>8.565626284734378</v>
+        <v>3.15719021058095</v>
       </c>
       <c r="L12">
-        <v>0.1125976300386924</v>
+        <v>0.1739958464720743</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.239300724157175</v>
+        <v>3.445228107744271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4652335096967022</v>
+        <v>0.4572437223412464</v>
       </c>
       <c r="D13">
-        <v>0.2764439857934491</v>
+        <v>0.2302768344549406</v>
       </c>
       <c r="E13">
-        <v>0.1585793444569532</v>
+        <v>0.1949553882465374</v>
       </c>
       <c r="F13">
-        <v>0.6640231256084661</v>
+        <v>1.459465884133166</v>
       </c>
       <c r="G13">
-        <v>0.3450639983965829</v>
+        <v>0.81753529146944</v>
       </c>
       <c r="H13">
-        <v>0.2657788206896612</v>
+        <v>0.8958818674716724</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1274468830480089</v>
+        <v>0.2198827767314526</v>
       </c>
       <c r="K13">
-        <v>8.519859317762325</v>
+        <v>3.142774149114246</v>
       </c>
       <c r="L13">
-        <v>0.1122081830576604</v>
+        <v>0.1739268063772599</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.238100662867225</v>
+        <v>3.447427905214369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4583374143873868</v>
+        <v>0.4558145541148519</v>
       </c>
       <c r="D14">
-        <v>0.272118096590745</v>
+        <v>0.2291297044230163</v>
       </c>
       <c r="E14">
-        <v>0.1564712446399277</v>
+        <v>0.1945470296309217</v>
       </c>
       <c r="F14">
-        <v>0.659384086294672</v>
+        <v>1.461256512542128</v>
       </c>
       <c r="G14">
-        <v>0.3428147617796498</v>
+        <v>0.8192481063483825</v>
       </c>
       <c r="H14">
-        <v>0.2663212699669231</v>
+        <v>0.8976329686066151</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1261594183929162</v>
+        <v>0.2198194146116919</v>
       </c>
       <c r="K14">
-        <v>8.370673638527421</v>
+        <v>3.095747133450516</v>
       </c>
       <c r="L14">
-        <v>0.1109409821065839</v>
+        <v>0.1737028820822104</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.234378773276575</v>
+        <v>3.454667540222687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4541248108541538</v>
+        <v>0.4549427580667782</v>
       </c>
       <c r="D15">
-        <v>0.2694717010200094</v>
+        <v>0.2284279532893123</v>
       </c>
       <c r="E15">
-        <v>0.1551835418476806</v>
+        <v>0.1942982098144022</v>
       </c>
       <c r="F15">
-        <v>0.6565958438992823</v>
+        <v>1.462372332054329</v>
       </c>
       <c r="G15">
-        <v>0.3414819777655111</v>
+        <v>0.8203112909055221</v>
       </c>
       <c r="H15">
-        <v>0.2666777440513926</v>
+        <v>0.8987155345570699</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1253757080455458</v>
+        <v>0.219782514214991</v>
       </c>
       <c r="K15">
-        <v>8.279345634090419</v>
+        <v>3.066931729916178</v>
       </c>
       <c r="L15">
-        <v>0.1101669654625184</v>
+        <v>0.1735666682732244</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.232244752689297</v>
+        <v>3.45915242953032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4301533891130589</v>
+        <v>0.450002283733312</v>
       </c>
       <c r="D16">
-        <v>0.2543552062530665</v>
+        <v>0.2244203735598518</v>
       </c>
       <c r="E16">
-        <v>0.1478571241684214</v>
+        <v>0.1928924668695373</v>
       </c>
       <c r="F16">
-        <v>0.6414106446744299</v>
+        <v>1.469057813271974</v>
       </c>
       <c r="G16">
-        <v>0.3345117710573362</v>
+        <v>0.826618822523244</v>
       </c>
       <c r="H16">
-        <v>0.2690819972894332</v>
+        <v>0.9050719716282458</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1209574303515168</v>
+        <v>0.2196003543651628</v>
       </c>
       <c r="K16">
-        <v>7.756725447156043</v>
+        <v>2.901652044884486</v>
       </c>
       <c r="L16">
-        <v>0.1057637976311838</v>
+        <v>0.1728006181999504</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.222184036476733</v>
+        <v>3.485625337504302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4155921596906467</v>
+        <v>0.4470210311858125</v>
       </c>
       <c r="D17">
-        <v>0.2451230504654234</v>
+        <v>0.2219743309258888</v>
       </c>
       <c r="E17">
-        <v>0.1434078711698064</v>
+        <v>0.1920481055641403</v>
       </c>
       <c r="F17">
-        <v>0.6327774134297783</v>
+        <v>1.473418772393082</v>
       </c>
       <c r="G17">
-        <v>0.3308087619775435</v>
+        <v>0.8306796962290477</v>
       </c>
       <c r="H17">
-        <v>0.2708692942342381</v>
+        <v>0.9091076203909836</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1183095987827087</v>
+        <v>0.2195147678191205</v>
       </c>
       <c r="K17">
-        <v>7.436713691885075</v>
+        <v>2.800127503123065</v>
       </c>
       <c r="L17">
-        <v>0.1030904449156722</v>
+        <v>0.172343677262873</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.217877938339711</v>
+        <v>3.502553520591903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4072674661643418</v>
+        <v>0.4453245501138667</v>
       </c>
       <c r="D18">
-        <v>0.2398272464043885</v>
+        <v>0.2205720568510543</v>
       </c>
       <c r="E18">
-        <v>0.140864672553267</v>
+        <v>0.1915690891964204</v>
       </c>
       <c r="F18">
-        <v>0.6280528337307985</v>
+        <v>1.476022421811486</v>
       </c>
       <c r="G18">
-        <v>0.3288807548216113</v>
+        <v>0.8330856226573999</v>
       </c>
       <c r="H18">
-        <v>0.2720081780469172</v>
+        <v>0.9114788381386987</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1168087440669012</v>
+        <v>0.2194751619025013</v>
       </c>
       <c r="K18">
-        <v>7.252846581771109</v>
+        <v>2.741686501675929</v>
       </c>
       <c r="L18">
-        <v>0.1015626249712369</v>
+        <v>0.1720856504980688</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.216060209138007</v>
+        <v>3.512542652022404</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4044573132141807</v>
+        <v>0.4447532901773741</v>
       </c>
       <c r="D19">
-        <v>0.2380365492918202</v>
+        <v>0.2200980690321899</v>
       </c>
       <c r="E19">
-        <v>0.140006250630357</v>
+        <v>0.1914080441630368</v>
       </c>
       <c r="F19">
-        <v>0.6264936684748861</v>
+        <v>1.476920340738907</v>
       </c>
       <c r="G19">
-        <v>0.3282618318433705</v>
+        <v>0.8339122766224989</v>
       </c>
       <c r="H19">
-        <v>0.2724124665532912</v>
+        <v>0.912290280074977</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1163042934348368</v>
+        <v>0.2194634050903659</v>
       </c>
       <c r="K19">
-        <v>7.19062357641576</v>
+        <v>2.721891473873825</v>
       </c>
       <c r="L19">
-        <v>0.1010469802926721</v>
+        <v>0.1719991116936157</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.215555484606725</v>
+        <v>3.515968135305229</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4171369403672998</v>
+        <v>0.4473365020364781</v>
       </c>
       <c r="D20">
-        <v>0.2461043306478388</v>
+        <v>0.2222342385664007</v>
       </c>
       <c r="E20">
-        <v>0.1438798403997552</v>
+        <v>0.1921373026490087</v>
       </c>
       <c r="F20">
-        <v>0.6336712747700659</v>
+        <v>1.472944671751478</v>
       </c>
       <c r="G20">
-        <v>0.3311818689110311</v>
+        <v>0.8302401390964178</v>
       </c>
       <c r="H20">
-        <v>0.2706674714673696</v>
+        <v>0.9086728412783955</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1185891567493016</v>
+        <v>0.2195228830424867</v>
       </c>
       <c r="K20">
-        <v>7.470758740641998</v>
+        <v>2.810939833891666</v>
       </c>
       <c r="L20">
-        <v>0.1033740022516909</v>
+        <v>0.1723918236032063</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.218267534168859</v>
+        <v>3.500725347855507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4603605625271996</v>
+        <v>0.4562335832101212</v>
       </c>
       <c r="D21">
-        <v>0.2733880144065779</v>
+        <v>0.2294664571595746</v>
       </c>
       <c r="E21">
-        <v>0.1570896964046042</v>
+        <v>0.1946667012068986</v>
       </c>
       <c r="F21">
-        <v>0.6607355181005872</v>
+        <v>1.460726599937836</v>
       </c>
       <c r="G21">
-        <v>0.3434660000350647</v>
+        <v>0.8187420853357992</v>
       </c>
       <c r="H21">
-        <v>0.2661568711185254</v>
+        <v>0.8971165507150261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1265365515895454</v>
+        <v>0.2198376274439227</v>
       </c>
       <c r="K21">
-        <v>8.414481991264154</v>
+        <v>3.10956219874447</v>
       </c>
       <c r="L21">
-        <v>0.1113127328562058</v>
+        <v>0.1737684569467177</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.23544145039142</v>
+        <v>3.452530578062607</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4891153867578453</v>
+        <v>0.4622100573367334</v>
       </c>
       <c r="D22">
-        <v>0.2913663536102717</v>
+        <v>0.2342334791032528</v>
       </c>
       <c r="E22">
-        <v>0.1658808243094256</v>
+        <v>0.1963785601910928</v>
       </c>
       <c r="F22">
-        <v>0.6807826510466057</v>
+        <v>1.453591936139837</v>
       </c>
       <c r="G22">
-        <v>0.3534819452505644</v>
+        <v>0.8118553314061359</v>
       </c>
       <c r="H22">
-        <v>0.2642817402540203</v>
+        <v>0.890009827359421</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1319474069692816</v>
+        <v>0.2201288684260732</v>
       </c>
       <c r="K22">
-        <v>9.033542759079978</v>
+        <v>3.304285156741912</v>
       </c>
       <c r="L22">
-        <v>0.1165976204728523</v>
+        <v>0.1747105574163044</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.253115937763596</v>
+        <v>3.423287613946314</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4737193064650285</v>
+        <v>0.4590055447752661</v>
       </c>
       <c r="D23">
-        <v>0.2817565391491286</v>
+        <v>0.231685578125763</v>
       </c>
       <c r="E23">
-        <v>0.1611735814926618</v>
+        <v>0.1954595504629495</v>
       </c>
       <c r="F23">
-        <v>0.6698564879836226</v>
+        <v>1.45732194000766</v>
       </c>
       <c r="G23">
-        <v>0.3479447629671739</v>
+        <v>0.8154733443924016</v>
       </c>
       <c r="H23">
-        <v>0.2651800416292076</v>
+        <v>0.8937619847709612</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1290386875973795</v>
+        <v>0.2199656076354799</v>
       </c>
       <c r="K23">
-        <v>8.702901697046855</v>
+        <v>3.200399801180367</v>
       </c>
       <c r="L23">
-        <v>0.1137676927335178</v>
+        <v>0.1742038761285443</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.243063052561524</v>
+        <v>3.438688467052401</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4164384000043242</v>
+        <v>0.4471938232056232</v>
       </c>
       <c r="D24">
-        <v>0.2456606570690809</v>
+        <v>0.2221167218907283</v>
       </c>
       <c r="E24">
-        <v>0.1436664173855924</v>
+        <v>0.1920969566515396</v>
       </c>
       <c r="F24">
-        <v>0.6332664186097787</v>
+        <v>1.473158712149747</v>
       </c>
       <c r="G24">
-        <v>0.331012563552477</v>
+        <v>0.8304386408821429</v>
       </c>
       <c r="H24">
-        <v>0.2707583696543665</v>
+        <v>0.9088692458401084</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1184627020921454</v>
+        <v>0.2195191842487887</v>
       </c>
       <c r="K24">
-        <v>7.455366631379263</v>
+        <v>2.806051806826531</v>
       </c>
       <c r="L24">
-        <v>0.1032457776512814</v>
+        <v>0.1723700420788958</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.218089354952667</v>
+        <v>3.501551064606801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3565561946582534</v>
+        <v>0.4351514044125793</v>
       </c>
       <c r="D25">
-        <v>0.2072619067775605</v>
+        <v>0.2119724445998799</v>
       </c>
       <c r="E25">
-        <v>0.125381709117832</v>
+        <v>0.1887238331296146</v>
       </c>
       <c r="F25">
-        <v>0.6029071734084042</v>
+        <v>1.4938853764234</v>
       </c>
       <c r="G25">
-        <v>0.3203718452486157</v>
+        <v>0.8492642142711375</v>
       </c>
       <c r="H25">
-        <v>0.2809722210174854</v>
+        <v>0.9270769016972693</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1078901516389834</v>
+        <v>0.2194055564675637</v>
       </c>
       <c r="K25">
-        <v>6.116894416334446</v>
+        <v>2.378910776246585</v>
       </c>
       <c r="L25">
-        <v>0.09226722639187557</v>
+        <v>0.1705753899276772</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.216058244928561</v>
+        <v>3.579007732502546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4268873391042973</v>
+        <v>0.3138236446690428</v>
       </c>
       <c r="D2">
-        <v>0.2046583537790383</v>
+        <v>0.179349460555386</v>
       </c>
       <c r="E2">
-        <v>0.1864598340150678</v>
+        <v>0.1123530293255293</v>
       </c>
       <c r="F2">
-        <v>1.512273373307259</v>
+        <v>0.5873503278848702</v>
       </c>
       <c r="G2">
-        <v>0.8654205197321545</v>
+        <v>0.3181710504190818</v>
       </c>
       <c r="H2">
-        <v>0.9421265453390291</v>
+        <v>0.2916893974667047</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2196388092749473</v>
+        <v>0.1007260010118287</v>
       </c>
       <c r="K2">
-        <v>2.062959816201669</v>
+        <v>5.134757079589463</v>
       </c>
       <c r="L2">
-        <v>0.1694129256959869</v>
+        <v>0.08445751275991142</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.644308653382978</v>
+        <v>1.233163322837598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4216639451440898</v>
+        <v>0.2855842819896282</v>
       </c>
       <c r="D3">
-        <v>0.1997997793834969</v>
+        <v>0.1606124713256349</v>
       </c>
       <c r="E3">
-        <v>0.1850631748933154</v>
+        <v>0.103757484292835</v>
       </c>
       <c r="F3">
-        <v>1.526682210855391</v>
+        <v>0.5805746339444795</v>
       </c>
       <c r="G3">
-        <v>0.8777951587670429</v>
+        <v>0.3197741877142093</v>
       </c>
       <c r="H3">
-        <v>0.9533504526584053</v>
+        <v>0.3007589857635651</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2199948724294671</v>
+        <v>0.0962133589505143</v>
       </c>
       <c r="K3">
-        <v>1.847978277075299</v>
+        <v>4.470014207586303</v>
       </c>
       <c r="L3">
-        <v>0.1687248952590608</v>
+        <v>0.07931511984271822</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.693707738598761</v>
+        <v>1.255075262091239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4186434002496213</v>
+        <v>0.2685624981972268</v>
       </c>
       <c r="D4">
-        <v>0.1968656607029828</v>
+        <v>0.1491829675744185</v>
       </c>
       <c r="E4">
-        <v>0.1842738000879507</v>
+        <v>0.09858415739193305</v>
       </c>
       <c r="F4">
-        <v>1.536488585419974</v>
+        <v>0.5781279034444964</v>
       </c>
       <c r="G4">
-        <v>0.8860941790756485</v>
+        <v>0.3221563138001287</v>
       </c>
       <c r="H4">
-        <v>0.9607471702700963</v>
+        <v>0.3071612508629542</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2203112764400785</v>
+        <v>0.09359805089881945</v>
       </c>
       <c r="K4">
-        <v>1.715574019572614</v>
+        <v>4.061920434541435</v>
       </c>
       <c r="L4">
-        <v>0.1683519026339724</v>
+        <v>0.0762256694135921</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.72657131162066</v>
+        <v>1.273226155878092</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.417459563553777</v>
+        <v>0.2617005336523306</v>
       </c>
       <c r="D5">
-        <v>0.195682441333048</v>
+        <v>0.1445424438217628</v>
       </c>
       <c r="E5">
-        <v>0.1839693216577594</v>
+        <v>0.09650071580174213</v>
       </c>
       <c r="F5">
-        <v>1.540725823342704</v>
+        <v>0.5775414148735507</v>
       </c>
       <c r="G5">
-        <v>0.8896520333237277</v>
+        <v>0.3234604259977729</v>
       </c>
       <c r="H5">
-        <v>0.9638883843885324</v>
+        <v>0.3099716957022025</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2204648263980715</v>
+        <v>0.09256951502723254</v>
       </c>
       <c r="K5">
-        <v>1.661520352166235</v>
+        <v>3.895587214840589</v>
       </c>
       <c r="L5">
-        <v>0.1682123869000449</v>
+        <v>0.07498295849261538</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.740599481397481</v>
+        <v>1.281748446051012</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4172658344437536</v>
+        <v>0.2605654645888507</v>
       </c>
       <c r="D6">
-        <v>0.1954867246206788</v>
+        <v>0.143772870561051</v>
       </c>
       <c r="E6">
-        <v>0.1839198035673846</v>
+        <v>0.09615621293113108</v>
       </c>
       <c r="F6">
-        <v>1.541443968226467</v>
+        <v>0.5774682512161888</v>
       </c>
       <c r="G6">
-        <v>0.8902534289758748</v>
+        <v>0.3236965951614508</v>
       </c>
       <c r="H6">
-        <v>0.9644176493139724</v>
+        <v>0.310450306281318</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2204918105467435</v>
+        <v>0.09240092276959899</v>
       </c>
       <c r="K6">
-        <v>1.652538987528146</v>
+        <v>3.86796448975764</v>
       </c>
       <c r="L6">
-        <v>0.1681899755996703</v>
+        <v>0.07477756620061626</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.742967238069113</v>
+        <v>1.283229983520769</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4186272439000049</v>
+        <v>0.2684696602076855</v>
       </c>
       <c r="D7">
-        <v>0.1968496527913857</v>
+        <v>0.1491203169261439</v>
       </c>
       <c r="E7">
-        <v>0.1842696240785138</v>
+        <v>0.09855596117505172</v>
       </c>
       <c r="F7">
-        <v>1.536544754462611</v>
+        <v>0.5781183575828734</v>
       </c>
       <c r="G7">
-        <v>0.8861414496120759</v>
+        <v>0.3221725749717166</v>
       </c>
       <c r="H7">
-        <v>0.9607890196569215</v>
+        <v>0.3071983482008704</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2203132475788863</v>
+        <v>0.09358403139002291</v>
       </c>
       <c r="K7">
-        <v>1.714845423913289</v>
+        <v>4.059677394491246</v>
       </c>
       <c r="L7">
-        <v>0.1683499704783884</v>
+        <v>0.0762088449894982</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.72675792633872</v>
+        <v>1.273336603984518</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4250476495788007</v>
+        <v>0.3040176083026012</v>
       </c>
       <c r="D8">
-        <v>0.2029730036558988</v>
+        <v>0.172872245906774</v>
       </c>
       <c r="E8">
-        <v>0.1859641467609912</v>
+        <v>0.1093666827352848</v>
       </c>
       <c r="F8">
-        <v>1.51704234316454</v>
+        <v>0.5846458723978785</v>
       </c>
       <c r="G8">
-        <v>0.8695416224171737</v>
+        <v>0.3184225212951191</v>
       </c>
       <c r="H8">
-        <v>0.9458916705175895</v>
+        <v>0.2946385865683823</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2197413003493764</v>
+        <v>0.09913661509904159</v>
       </c>
       <c r="K8">
-        <v>1.988920451549234</v>
+        <v>4.905511444901947</v>
       </c>
       <c r="L8">
-        <v>0.1691654533271247</v>
+        <v>0.08266978389887925</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.660815406883486</v>
+        <v>1.239709519806681</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4391144431215821</v>
+        <v>0.376498829156958</v>
       </c>
       <c r="D9">
-        <v>0.2153656587447301</v>
+        <v>0.2201342178038459</v>
       </c>
       <c r="E9">
-        <v>0.1898260457953462</v>
+        <v>0.1314683144071367</v>
       </c>
       <c r="F9">
-        <v>1.486417339562891</v>
+        <v>0.6120118256417797</v>
       </c>
       <c r="G9">
-        <v>0.8425654274084522</v>
+        <v>0.3230222241566167</v>
       </c>
       <c r="H9">
-        <v>0.920688261704683</v>
+        <v>0.2770087920706885</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2193946389922772</v>
+        <v>0.1113489292105569</v>
       </c>
       <c r="K9">
-        <v>2.523024635944694</v>
+        <v>6.567060000779691</v>
       </c>
       <c r="L9">
-        <v>0.1711553156196857</v>
+        <v>0.09591996943226633</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.551629731263574</v>
+        <v>1.213673269633816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4503449362916569</v>
+        <v>0.4318219574963678</v>
       </c>
       <c r="D10">
-        <v>0.2247001078808211</v>
+        <v>0.2554106597797556</v>
       </c>
       <c r="E10">
-        <v>0.1929897126018858</v>
+        <v>0.1483670216379487</v>
       </c>
       <c r="F10">
-        <v>1.468573121818423</v>
+        <v>0.6424291143496035</v>
       </c>
       <c r="G10">
-        <v>0.8261649723789759</v>
+        <v>0.334962286676955</v>
       </c>
       <c r="H10">
-        <v>0.9046182557261488</v>
+        <v>0.2688933588073752</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2196114236165485</v>
+        <v>0.1212626272822277</v>
       </c>
       <c r="K10">
-        <v>2.9132302695769</v>
+        <v>7.793269240263612</v>
       </c>
       <c r="L10">
-        <v>0.1728534068756034</v>
+        <v>0.1060702061598491</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.483727949963935</v>
+        <v>1.222766600334836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4556476257817224</v>
+        <v>0.457531161539606</v>
       </c>
       <c r="D11">
-        <v>0.2289954547205184</v>
+        <v>0.2716118287205376</v>
       </c>
       <c r="E11">
-        <v>0.194499369835949</v>
+        <v>0.1562247862811894</v>
       </c>
       <c r="F11">
-        <v>1.461468764094413</v>
+        <v>0.6588477475238292</v>
       </c>
       <c r="G11">
-        <v>0.8194505874845248</v>
+        <v>0.3425572451946834</v>
       </c>
       <c r="H11">
-        <v>0.8978393972849119</v>
+        <v>0.2663880109284662</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2198122447814086</v>
+        <v>0.126009260297991</v>
       </c>
       <c r="K11">
-        <v>3.090237336870814</v>
+        <v>8.35320586470732</v>
       </c>
       <c r="L11">
-        <v>0.1736767776778336</v>
+        <v>0.1107928379510597</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.45552219929769</v>
+        <v>1.233962093638297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4576833938143068</v>
+        <v>0.4673527190817595</v>
       </c>
       <c r="D12">
-        <v>0.2306289414007665</v>
+        <v>0.2777718035848835</v>
       </c>
       <c r="E12">
-        <v>0.1950811278878639</v>
+        <v>0.1592272017015297</v>
       </c>
       <c r="F12">
-        <v>1.458924403298994</v>
+        <v>0.6654671187718506</v>
       </c>
       <c r="G12">
-        <v>0.8170156879842096</v>
+        <v>0.3457718337553075</v>
       </c>
       <c r="H12">
-        <v>0.8953488978507806</v>
+        <v>0.2656222422446319</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2199029680323363</v>
+        <v>0.1278436404216023</v>
       </c>
       <c r="K12">
-        <v>3.15719021058095</v>
+        <v>8.565626284734321</v>
       </c>
       <c r="L12">
-        <v>0.1739958464720743</v>
+        <v>0.1125976300386853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.445228107744271</v>
+        <v>1.239300724157204</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4572437223412464</v>
+        <v>0.4652335096964748</v>
       </c>
       <c r="D13">
-        <v>0.2302768344549406</v>
+        <v>0.2764439857934491</v>
       </c>
       <c r="E13">
-        <v>0.1949553882465374</v>
+        <v>0.1585793444569497</v>
       </c>
       <c r="F13">
-        <v>1.459465884133166</v>
+        <v>0.664023125608459</v>
       </c>
       <c r="G13">
-        <v>0.81753529146944</v>
+        <v>0.3450639983966397</v>
       </c>
       <c r="H13">
-        <v>0.8958818674716724</v>
+        <v>0.2657788206896754</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2198827767314526</v>
+        <v>0.1274468830480089</v>
       </c>
       <c r="K13">
-        <v>3.142774149114246</v>
+        <v>8.519859317762382</v>
       </c>
       <c r="L13">
-        <v>0.1739268063772599</v>
+        <v>0.1122081830577315</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.447427905214369</v>
+        <v>1.23810066286714</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4558145541148519</v>
+        <v>0.4583374143870742</v>
       </c>
       <c r="D14">
-        <v>0.2291297044230163</v>
+        <v>0.2721180965909156</v>
       </c>
       <c r="E14">
-        <v>0.1945470296309217</v>
+        <v>0.1564712446398993</v>
       </c>
       <c r="F14">
-        <v>1.461256512542128</v>
+        <v>0.6593840862946934</v>
       </c>
       <c r="G14">
-        <v>0.8192481063483825</v>
+        <v>0.3428147617795787</v>
       </c>
       <c r="H14">
-        <v>0.8976329686066151</v>
+        <v>0.2663212699669373</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2198194146116919</v>
+        <v>0.1261594183929802</v>
       </c>
       <c r="K14">
-        <v>3.095747133450516</v>
+        <v>8.370673638527478</v>
       </c>
       <c r="L14">
-        <v>0.1737028820822104</v>
+        <v>0.1109409821065626</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.454667540222687</v>
+        <v>1.234378773276518</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4549427580667782</v>
+        <v>0.4541248108541254</v>
       </c>
       <c r="D15">
-        <v>0.2284279532893123</v>
+        <v>0.2694717010200378</v>
       </c>
       <c r="E15">
-        <v>0.1942982098144022</v>
+        <v>0.1551835418476841</v>
       </c>
       <c r="F15">
-        <v>1.462372332054329</v>
+        <v>0.6565958438992823</v>
       </c>
       <c r="G15">
-        <v>0.8203112909055221</v>
+        <v>0.3414819777655254</v>
       </c>
       <c r="H15">
-        <v>0.8987155345570699</v>
+        <v>0.2666777440514068</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.219782514214991</v>
+        <v>0.12537570804556</v>
       </c>
       <c r="K15">
-        <v>3.066931729916178</v>
+        <v>8.279345634090419</v>
       </c>
       <c r="L15">
-        <v>0.1735666682732244</v>
+        <v>0.1101669654625752</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.45915242953032</v>
+        <v>1.232244752689354</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.450002283733312</v>
+        <v>0.4301533891131157</v>
       </c>
       <c r="D16">
-        <v>0.2244203735598518</v>
+        <v>0.2543552062530097</v>
       </c>
       <c r="E16">
-        <v>0.1928924668695373</v>
+        <v>0.1478571241684214</v>
       </c>
       <c r="F16">
-        <v>1.469057813271974</v>
+        <v>0.6414106446744228</v>
       </c>
       <c r="G16">
-        <v>0.826618822523244</v>
+        <v>0.3345117710572936</v>
       </c>
       <c r="H16">
-        <v>0.9050719716282458</v>
+        <v>0.2690819972893337</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2196003543651628</v>
+        <v>0.120957430351524</v>
       </c>
       <c r="K16">
-        <v>2.901652044884486</v>
+        <v>7.756725447155929</v>
       </c>
       <c r="L16">
-        <v>0.1728006181999504</v>
+        <v>0.1057637976311057</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.485625337504302</v>
+        <v>1.222184036476733</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4470210311858125</v>
+        <v>0.4155921596906182</v>
       </c>
       <c r="D17">
-        <v>0.2219743309258888</v>
+        <v>0.2451230504652813</v>
       </c>
       <c r="E17">
-        <v>0.1920481055641403</v>
+        <v>0.1434078711698348</v>
       </c>
       <c r="F17">
-        <v>1.473418772393082</v>
+        <v>0.6327774134297925</v>
       </c>
       <c r="G17">
-        <v>0.8306796962290477</v>
+        <v>0.3308087619774795</v>
       </c>
       <c r="H17">
-        <v>0.9091076203909836</v>
+        <v>0.2708692942342452</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2195147678191205</v>
+        <v>0.118309598782588</v>
       </c>
       <c r="K17">
-        <v>2.800127503123065</v>
+        <v>7.436713691885245</v>
       </c>
       <c r="L17">
-        <v>0.172343677262873</v>
+        <v>0.1030904449156935</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.502553520591903</v>
+        <v>1.217877938339797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4453245501138667</v>
+        <v>0.4072674661642282</v>
       </c>
       <c r="D18">
-        <v>0.2205720568510543</v>
+        <v>0.2398272464043458</v>
       </c>
       <c r="E18">
-        <v>0.1915690891964204</v>
+        <v>0.1408646725532634</v>
       </c>
       <c r="F18">
-        <v>1.476022421811486</v>
+        <v>0.6280528337308056</v>
       </c>
       <c r="G18">
-        <v>0.8330856226573999</v>
+        <v>0.3288807548216823</v>
       </c>
       <c r="H18">
-        <v>0.9114788381386987</v>
+        <v>0.2720081780469172</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2194751619025013</v>
+        <v>0.1168087440669154</v>
       </c>
       <c r="K18">
-        <v>2.741686501675929</v>
+        <v>7.252846581771109</v>
       </c>
       <c r="L18">
-        <v>0.1720856504980688</v>
+        <v>0.1015626249712582</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.512542652022404</v>
+        <v>1.216060209137993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4447532901773741</v>
+        <v>0.4044573132140385</v>
       </c>
       <c r="D19">
-        <v>0.2200980690321899</v>
+        <v>0.2380365492920475</v>
       </c>
       <c r="E19">
-        <v>0.1914080441630368</v>
+        <v>0.1400062506303534</v>
       </c>
       <c r="F19">
-        <v>1.476920340738907</v>
+        <v>0.6264936684749003</v>
       </c>
       <c r="G19">
-        <v>0.8339122766224989</v>
+        <v>0.3282618318433634</v>
       </c>
       <c r="H19">
-        <v>0.912290280074977</v>
+        <v>0.2724124665532841</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2194634050903659</v>
+        <v>0.1163042934348013</v>
       </c>
       <c r="K19">
-        <v>2.721891473873825</v>
+        <v>7.19062357641576</v>
       </c>
       <c r="L19">
-        <v>0.1719991116936157</v>
+        <v>0.1010469802925797</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.515968135305229</v>
+        <v>1.21555548460671</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4473365020364781</v>
+        <v>0.417136940367385</v>
       </c>
       <c r="D20">
-        <v>0.2222342385664007</v>
+        <v>0.2461043306479667</v>
       </c>
       <c r="E20">
-        <v>0.1921373026490087</v>
+        <v>0.1438798403997481</v>
       </c>
       <c r="F20">
-        <v>1.472944671751478</v>
+        <v>0.633671274770073</v>
       </c>
       <c r="G20">
-        <v>0.8302401390964178</v>
+        <v>0.331181868911024</v>
       </c>
       <c r="H20">
-        <v>0.9086728412783955</v>
+        <v>0.2706674714673554</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2195228830424867</v>
+        <v>0.1185891567492163</v>
       </c>
       <c r="K20">
-        <v>2.810939833891666</v>
+        <v>7.470758740641941</v>
       </c>
       <c r="L20">
-        <v>0.1723918236032063</v>
+        <v>0.1033740022516412</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.500725347855507</v>
+        <v>1.218267534168831</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4562335832101212</v>
+        <v>0.4603605625271143</v>
       </c>
       <c r="D21">
-        <v>0.2294664571595746</v>
+        <v>0.2733880144066205</v>
       </c>
       <c r="E21">
-        <v>0.1946667012068986</v>
+        <v>0.1570896964046185</v>
       </c>
       <c r="F21">
-        <v>1.460726599937836</v>
+        <v>0.6607355181005943</v>
       </c>
       <c r="G21">
-        <v>0.8187420853357992</v>
+        <v>0.3434660000350078</v>
       </c>
       <c r="H21">
-        <v>0.8971165507150261</v>
+        <v>0.2661568711186391</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2198376274439227</v>
+        <v>0.1265365515895809</v>
       </c>
       <c r="K21">
-        <v>3.10956219874447</v>
+        <v>8.414481991264154</v>
       </c>
       <c r="L21">
-        <v>0.1737684569467177</v>
+        <v>0.1113127328561418</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.452530578062607</v>
+        <v>1.23544145039142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4622100573367334</v>
+        <v>0.4891153867576179</v>
       </c>
       <c r="D22">
-        <v>0.2342334791032528</v>
+        <v>0.2913663536104707</v>
       </c>
       <c r="E22">
-        <v>0.1963785601910928</v>
+        <v>0.1658808243094398</v>
       </c>
       <c r="F22">
-        <v>1.453591936139837</v>
+        <v>0.6807826510465915</v>
       </c>
       <c r="G22">
-        <v>0.8118553314061359</v>
+        <v>0.3534819452505502</v>
       </c>
       <c r="H22">
-        <v>0.890009827359421</v>
+        <v>0.2642817402540203</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2201288684260732</v>
+        <v>0.1319474069691395</v>
       </c>
       <c r="K22">
-        <v>3.304285156741912</v>
+        <v>9.033542759080149</v>
       </c>
       <c r="L22">
-        <v>0.1747105574163044</v>
+        <v>0.1165976204728665</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.423287613946314</v>
+        <v>1.253115937763482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4590055447752661</v>
+        <v>0.4737193064647727</v>
       </c>
       <c r="D23">
-        <v>0.231685578125763</v>
+        <v>0.2817565391492991</v>
       </c>
       <c r="E23">
-        <v>0.1954595504629495</v>
+        <v>0.1611735814926654</v>
       </c>
       <c r="F23">
-        <v>1.45732194000766</v>
+        <v>0.6698564879836155</v>
       </c>
       <c r="G23">
-        <v>0.8154733443924016</v>
+        <v>0.3479447629672592</v>
       </c>
       <c r="H23">
-        <v>0.8937619847709612</v>
+        <v>0.2651800416292076</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2199656076354799</v>
+        <v>0.1290386875975429</v>
       </c>
       <c r="K23">
-        <v>3.200399801180367</v>
+        <v>8.702901697046741</v>
       </c>
       <c r="L23">
-        <v>0.1742038761285443</v>
+        <v>0.1137676927335178</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.438688467052401</v>
+        <v>1.243063052561439</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4471938232056232</v>
+        <v>0.4164384000043242</v>
       </c>
       <c r="D24">
-        <v>0.2221167218907283</v>
+        <v>0.2456606570689246</v>
       </c>
       <c r="E24">
-        <v>0.1920969566515396</v>
+        <v>0.1436664173855888</v>
       </c>
       <c r="F24">
-        <v>1.473158712149747</v>
+        <v>0.6332664186097645</v>
       </c>
       <c r="G24">
-        <v>0.8304386408821429</v>
+        <v>0.3310125635525196</v>
       </c>
       <c r="H24">
-        <v>0.9088692458401084</v>
+        <v>0.2707583696543736</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2195191842487887</v>
+        <v>0.1184627020921383</v>
       </c>
       <c r="K24">
-        <v>2.806051806826531</v>
+        <v>7.45536663137932</v>
       </c>
       <c r="L24">
-        <v>0.1723700420788958</v>
+        <v>0.1032457776513098</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.501551064606801</v>
+        <v>1.21808935495261</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4351514044125793</v>
+        <v>0.3565561946583387</v>
       </c>
       <c r="D25">
-        <v>0.2119724445998799</v>
+        <v>0.2072619067774184</v>
       </c>
       <c r="E25">
-        <v>0.1887238331296146</v>
+        <v>0.125381709117832</v>
       </c>
       <c r="F25">
-        <v>1.4938853764234</v>
+        <v>0.6029071734084113</v>
       </c>
       <c r="G25">
-        <v>0.8492642142711375</v>
+        <v>0.320371845248637</v>
       </c>
       <c r="H25">
-        <v>0.9270769016972693</v>
+        <v>0.2809722210174996</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2194055564675637</v>
+        <v>0.1078901516389976</v>
       </c>
       <c r="K25">
-        <v>2.378910776246585</v>
+        <v>6.11689441633456</v>
       </c>
       <c r="L25">
-        <v>0.1705753899276772</v>
+        <v>0.09226722639189688</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.579007732502546</v>
+        <v>1.216058244928561</v>
       </c>
     </row>
   </sheetData>
